--- a/DailyTradingPlan_JP.xlsx
+++ b/DailyTradingPlan_JP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\PycharmProjects\ibbot100_data\MTA_GitHub\241005\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\PycharmProjects\Momentum-Trading-Assistant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EE29EF-D37D-44B3-80B0-37E809AAC43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914820F8-39FF-4AEE-8205-C0976A3F0479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>Profit taker price [$]</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
     <t>SMART</t>
   </si>
   <si>
@@ -289,6 +286,9 @@
   </si>
   <si>
     <t>TSEJ</t>
+  </si>
+  <si>
+    <t>JPY</t>
   </si>
 </sst>
 </file>
@@ -658,7 +658,7 @@
   <dimension ref="A1:CA290"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -775,205 +775,205 @@
         <v>8</v>
       </c>
       <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="BB1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>76</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:79" x14ac:dyDescent="0.3">
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
         <v>79</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>81</v>
       </c>
       <c r="H2" s="1">
         <v>9</v>
@@ -1019,16 +1019,16 @@
         <v>3687</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3" s="1">
         <v>2285</v>
@@ -1057,16 +1057,16 @@
         <v>6670</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" s="1">
         <v>1335</v>

--- a/DailyTradingPlan_JP.xlsx
+++ b/DailyTradingPlan_JP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\PycharmProjects\Momentum-Trading-Assistant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914820F8-39FF-4AEE-8205-C0976A3F0479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062E6F9B-A52D-4B87-97AF-FA0023EF1C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>Symbol</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>JPY</t>
+  </si>
+  <si>
+    <t>USD</t>
   </si>
 </sst>
 </file>
@@ -658,7 +661,7 @@
   <dimension ref="A1:CA290"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,7 +990,7 @@
         <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
